--- a/subjects/resources/1/it_phys/LR6.xlsx
+++ b/subjects/resources/1/it_phys/LR6.xlsx
@@ -5,18 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\ИТ в физике\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_phys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +135,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -189,7 +186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -270,6 +266,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B96E-43EE-AEC7-3D208395EF85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -330,7 +331,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -440,7 +440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -557,7 +556,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -686,6 +685,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0B8-4283-A828-FD5BA3B3B95D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -993,7 +997,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1126,6 +1130,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFE0-4EC9-B91D-032D62391D35}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3215,40 +3224,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1">
-            <v>13.9</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>8.33</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>3.22883087597351E+004</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
